--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_3_ABCDF/ABCF/20/seed4/result_data_RandomForest.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_3_ABCDF/ABCF/20/seed4/result_data_RandomForest.xlsx
@@ -465,7 +465,7 @@
         <v>-21.2</v>
       </c>
       <c r="B2" t="n">
-        <v>5.498099999999999</v>
+        <v>5.368399999999999</v>
       </c>
       <c r="C2" t="n">
         <v>-10.8</v>
@@ -482,7 +482,7 @@
         <v>-21.67</v>
       </c>
       <c r="B3" t="n">
-        <v>5.89839999999999</v>
+        <v>5.71839999999999</v>
       </c>
       <c r="C3" t="n">
         <v>-9.76</v>
@@ -508,7 +508,7 @@
         <v>-7.43</v>
       </c>
       <c r="E4" t="n">
-        <v>12.9466</v>
+        <v>12.6931</v>
       </c>
     </row>
     <row r="5">
@@ -516,7 +516,7 @@
         <v>-23.4</v>
       </c>
       <c r="B5" t="n">
-        <v>4.926800000000003</v>
+        <v>5.2195</v>
       </c>
       <c r="C5" t="n">
         <v>-15.14</v>
@@ -542,7 +542,7 @@
         <v>-8.59</v>
       </c>
       <c r="E6" t="n">
-        <v>12.0822</v>
+        <v>12.1522</v>
       </c>
     </row>
     <row r="7">
@@ -553,7 +553,7 @@
         <v>6.56</v>
       </c>
       <c r="C7" t="n">
-        <v>-11.24989999999999</v>
+        <v>-11.49149999999999</v>
       </c>
       <c r="D7" t="n">
         <v>-9.31</v>
@@ -581,13 +581,13 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>-20.36949999999998</v>
+        <v>-20.40319999999998</v>
       </c>
       <c r="B9" t="n">
         <v>10.18</v>
       </c>
       <c r="C9" t="n">
-        <v>-12.06710000000001</v>
+        <v>-12.33190000000001</v>
       </c>
       <c r="D9" t="n">
         <v>-9.9</v>
@@ -610,7 +610,7 @@
         <v>-8.93</v>
       </c>
       <c r="E10" t="n">
-        <v>11.9273</v>
+        <v>11.8099</v>
       </c>
     </row>
     <row r="11">
@@ -618,7 +618,7 @@
         <v>-22.23</v>
       </c>
       <c r="B11" t="n">
-        <v>4.827100000000001</v>
+        <v>4.880100000000002</v>
       </c>
       <c r="C11" t="n">
         <v>-13.87</v>
@@ -627,7 +627,7 @@
         <v>-8.01</v>
       </c>
       <c r="E11" t="n">
-        <v>12.75779999999999</v>
+        <v>12.56749999999999</v>
       </c>
     </row>
     <row r="12">
@@ -635,7 +635,7 @@
         <v>-24</v>
       </c>
       <c r="B12" t="n">
-        <v>5.595199999999998</v>
+        <v>5.434599999999997</v>
       </c>
       <c r="C12" t="n">
         <v>-15.79</v>
@@ -649,7 +649,7 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>-22.07900000000002</v>
+        <v>-22.13510000000002</v>
       </c>
       <c r="B13" t="n">
         <v>4.42</v>
@@ -700,7 +700,7 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>-20.2013</v>
+        <v>-20.0333</v>
       </c>
       <c r="B16" t="n">
         <v>8.949999999999999</v>
@@ -734,7 +734,7 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>-22.7513</v>
+        <v>-22.65850000000001</v>
       </c>
       <c r="B18" t="n">
         <v>5.81</v>
@@ -768,7 +768,7 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>-22.13500000000003</v>
+        <v>-22.08480000000003</v>
       </c>
       <c r="B20" t="n">
         <v>5.51</v>
@@ -788,16 +788,16 @@
         <v>-21.82</v>
       </c>
       <c r="B21" t="n">
-        <v>5.070500000000001</v>
+        <v>5.074300000000003</v>
       </c>
       <c r="C21" t="n">
-        <v>-13.75570000000001</v>
+        <v>-13.7628</v>
       </c>
       <c r="D21" t="n">
         <v>-8.890000000000001</v>
       </c>
       <c r="E21" t="n">
-        <v>12.69829999999998</v>
+        <v>12.80729999999998</v>
       </c>
     </row>
     <row r="22">
@@ -865,7 +865,7 @@
         <v>-7.71</v>
       </c>
       <c r="E25" t="n">
-        <v>13.002</v>
+        <v>12.8488</v>
       </c>
     </row>
   </sheetData>
